--- a/results/Beijing_lineage_SNP.xlsx
+++ b/results/Beijing_lineage_SNP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fang/Documents/Bioinformatics/test/test_shell/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fang/GitHub/Tuberculosis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,8 +1039,7 @@
         <v>1217</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G3:G66" si="0">F10/D10</f>
-        <v>0.90685543964232485</v>
+        <v>0.82620000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1063,8 +1062,7 @@
         <v>1217</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88702623906705536</v>
+        <v>0.82620000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,8 +1085,7 @@
         <v>1217</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91918429003021151</v>
+        <v>0.82620000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1711,8 +1708,7 @@
         <v>1249</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8783403656821378</v>
+        <v>0.82010000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1735,8 +1731,7 @@
         <v>1249</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90638606676342526</v>
+        <v>0.82010000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1759,8 +1754,7 @@
         <v>1249</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91636096845194426</v>
+        <v>0.82010000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1919,8 +1913,7 @@
         <v>1220</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>0.87142857142857144</v>
+        <v>0.81930000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1943,8 +1936,7 @@
         <v>1220</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92634776006074415</v>
+        <v>0.81930000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1967,8 +1959,7 @@
         <v>1220</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91798344620015049</v>
+        <v>0.81930000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2191,8 +2182,7 @@
         <v>1258</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89793004996431125</v>
+        <v>0.83589999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2215,8 +2205,7 @@
         <v>1258</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G130" si="1">F67/D67</f>
-        <v>0.93047337278106512</v>
+        <v>0.83589999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2239,8 +2228,7 @@
         <v>1258</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="1"/>
-        <v>0.92704495210022109</v>
+        <v>0.83589999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2455,8 +2443,7 @@
         <v>1194</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="1"/>
-        <v>0.96368038740920092</v>
+        <v>0.81220000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2479,8 +2466,7 @@
         <v>1194</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="1"/>
-        <v>0.86710239651416121</v>
+        <v>0.81220000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2503,8 +2489,7 @@
         <v>1194</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="1"/>
-        <v>0.8498220640569395</v>
+        <v>0.81220000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2619,8 +2604,7 @@
         <v>764</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="1"/>
-        <v>0.68336314847942758</v>
+        <v>0.51280000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2643,8 +2627,7 @@
         <v>764</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="1"/>
-        <v>0.60062893081761004</v>
+        <v>0.51280000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2667,8 +2650,7 @@
         <v>764</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="1"/>
-        <v>0.63455149501661134</v>
+        <v>0.51280000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2691,8 +2673,7 @@
         <v>764</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="1"/>
-        <v>0.58231707317073167</v>
+        <v>0.51280000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2715,8 +2696,7 @@
         <v>764</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="1"/>
-        <v>0.73390970220941398</v>
+        <v>0.51280000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3165,8 +3145,7 @@
         <v>1056</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="1"/>
-        <v>0.81797056545313707</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3189,8 +3168,7 @@
         <v>1056</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="1"/>
-        <v>0.84615384615384615</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3213,8 +3191,7 @@
         <v>1056</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="1"/>
-        <v>0.75862068965517238</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -3237,8 +3214,7 @@
         <v>1056</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="1"/>
-        <v>0.75807609475951188</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
